--- a/7/2/2/2/2/2/Banco Central 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/2/Banco Central 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Serie</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC74"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7269,6 +7272,95 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="75" spans="1:29">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75">
+        <v>11383</v>
+      </c>
+      <c r="C75">
+        <v>-61</v>
+      </c>
+      <c r="D75">
+        <v>1456</v>
+      </c>
+      <c r="E75">
+        <v>206</v>
+      </c>
+      <c r="F75">
+        <v>1250</v>
+      </c>
+      <c r="G75">
+        <v>3754</v>
+      </c>
+      <c r="H75">
+        <v>3754</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>6095</v>
+      </c>
+      <c r="K75">
+        <v>6092</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>140</v>
+      </c>
+      <c r="P75">
+        <v>118</v>
+      </c>
+      <c r="Q75">
+        <v>11265</v>
+      </c>
+      <c r="R75">
+        <v>1914</v>
+      </c>
+      <c r="S75">
+        <v>1131</v>
+      </c>
+      <c r="T75">
+        <v>784</v>
+      </c>
+      <c r="U75">
+        <v>9349</v>
+      </c>
+      <c r="V75">
+        <v>9350</v>
+      </c>
+      <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
